--- a/999.xlsx
+++ b/999.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15094\Desktop\xiaowugui\vueDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11179710-9CB1-4A31-BA9C-07698451384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FD3DD8-5527-4B21-BE0B-F681D934175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6228" windowWidth="23040" windowHeight="6276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,17 +344,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1"/>
+  <dimension ref="E1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>888</v>
+      </c>
+      <c r="F1">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
